--- a/results_final/ti_ML.xlsx
+++ b/results_final/ti_ML.xlsx
@@ -486,91 +486,91 @@
         <v>0.98</v>
       </c>
       <c r="D2">
-        <v>1.555082366716569</v>
+        <v>1.555284338019139</v>
       </c>
       <c r="E2">
-        <v>2.193219008483711</v>
+        <v>2.194215216927361</v>
       </c>
       <c r="F2">
-        <v>2.824647113864731</v>
+        <v>2.827421753515038</v>
       </c>
       <c r="G2">
-        <v>3.412282891401579</v>
+        <v>3.418112566141071</v>
       </c>
       <c r="H2">
-        <v>3.937270164905044</v>
+        <v>3.947585122819874</v>
       </c>
       <c r="I2">
-        <v>4.39208048668777</v>
+        <v>4.408322322946979</v>
       </c>
       <c r="J2">
-        <v>4.775687485601917</v>
+        <v>4.799168975495887</v>
       </c>
       <c r="K2">
-        <v>5.090238866135875</v>
+        <v>5.122008649631288</v>
       </c>
       <c r="L2">
-        <v>5.33920089109326</v>
+        <v>5.37993129047682</v>
       </c>
       <c r="M2">
-        <v>5.518743862992785</v>
+        <v>5.568630125833018</v>
       </c>
       <c r="N2">
-        <v>5.634214805507243</v>
+        <v>5.692832219368835</v>
       </c>
       <c r="O2">
-        <v>5.689099858683555</v>
+        <v>5.755203733307075</v>
       </c>
       <c r="P2">
-        <v>5.685012134792885</v>
+        <v>5.756275362543696</v>
       </c>
       <c r="Q2">
-        <v>5.634535804086696</v>
+        <v>5.708484311718471</v>
       </c>
       <c r="R2">
-        <v>5.558684890528208</v>
+        <v>5.633708567697529</v>
       </c>
       <c r="S2">
-        <v>5.471172800264148</v>
+        <v>5.546251166966227</v>
       </c>
       <c r="T2">
-        <v>5.380747951419577</v>
+        <v>5.455261312144374</v>
       </c>
       <c r="U2">
-        <v>5.292795987566087</v>
+        <v>5.36639498598111</v>
       </c>
       <c r="V2">
-        <v>5.210441321118853</v>
+        <v>5.282956628988396</v>
       </c>
       <c r="W2">
-        <v>5.135305346394198</v>
+        <v>5.206685113273592</v>
       </c>
       <c r="X2">
-        <v>5.068028098175012</v>
+        <v>5.138294725021634</v>
       </c>
       <c r="Y2">
-        <v>5.008626198063916</v>
+        <v>5.077846634431948</v>
       </c>
       <c r="Z2">
-        <v>4.956737093096866</v>
+        <v>5.025002633391774</v>
       </c>
       <c r="AA2">
-        <v>4.911784144462664</v>
+        <v>4.97919690517586</v>
       </c>
       <c r="AB2">
-        <v>4.87308660497027</v>
+        <v>4.939750693470648</v>
       </c>
       <c r="AC2">
-        <v>4.839931301498529</v>
+        <v>4.905947263102051</v>
       </c>
       <c r="AD2">
-        <v>4.811617836205087</v>
+        <v>4.877079371698912</v>
       </c>
       <c r="AE2">
-        <v>4.787485625808836</v>
+        <v>4.852477860032113</v>
       </c>
       <c r="AF2">
-        <v>4.770523648432759</v>
+        <v>4.83518870344775</v>
       </c>
     </row>
   </sheetData>
